--- a/Documentation/Doc Archive/Trait Worksheet.xlsx
+++ b/Documentation/Doc Archive/Trait Worksheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Positive" sheetId="1" r:id="rId1"/>
@@ -5401,9 +5401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S296"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5480,15 +5480,21 @@
       <c r="A7" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>242</v>
       </c>
@@ -5498,15 +5504,21 @@
       <c r="A8" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>243</v>
       </c>
@@ -5516,15 +5528,21 @@
       <c r="A9" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>244</v>
       </c>
@@ -5534,15 +5552,21 @@
       <c r="A10" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>247</v>
       </c>
@@ -5552,15 +5576,21 @@
       <c r="A11" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>248</v>
       </c>
@@ -5570,15 +5600,21 @@
       <c r="A12" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>250</v>
       </c>
@@ -5588,15 +5624,21 @@
       <c r="A13" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>4</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>251</v>
       </c>
@@ -5606,15 +5648,21 @@
       <c r="A14" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>252</v>
       </c>
@@ -5624,14 +5672,21 @@
       <c r="A15" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>253</v>
       </c>
@@ -5641,14 +5696,21 @@
       <c r="A16" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7">
+        <v>4</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>258</v>
       </c>
@@ -5658,14 +5720,21 @@
       <c r="A17" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>333</v>
       </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>259</v>
       </c>
@@ -5675,14 +5744,21 @@
       <c r="A18" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>260</v>
       </c>
@@ -5692,12 +5768,16 @@
       <c r="A19" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>4</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>266</v>
       </c>
@@ -5710,7 +5790,9 @@
       <c r="E20" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>267</v>
       </c>
@@ -5723,7 +5805,9 @@
       <c r="E21" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>4</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>269</v>
       </c>
@@ -5735,7 +5819,9 @@
       <c r="E22" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7">
+        <v>4</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>271</v>
       </c>
@@ -5747,7 +5833,9 @@
       <c r="E23" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>4</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>273</v>
       </c>
@@ -5759,7 +5847,9 @@
       <c r="E24" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>274</v>
       </c>
@@ -5771,7 +5861,9 @@
       <c r="E25" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>4</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>275</v>
       </c>
@@ -5783,7 +5875,9 @@
       <c r="E26" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7">
+        <v>4</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>276</v>
       </c>
@@ -5795,7 +5889,9 @@
       <c r="E27" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="7">
+        <v>4</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>277</v>
       </c>
@@ -6871,10 +6967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6946,1692 +7042,1304 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="1" t="s">
-        <v>654</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="1" t="s">
-        <v>633</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="1" t="s">
-        <v>358</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>445</v>
+      </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>446</v>
+      </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="B24" s="7"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="1" t="s">
-        <v>361</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="B25" s="7"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>463</v>
+      </c>
       <c r="B26" s="7"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="1" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="B27" s="7"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="B28" s="7"/>
-      <c r="E28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="1" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="1" t="s">
-        <v>635</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>497</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="1" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>503</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="1" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="1" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>511</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="1" t="s">
-        <v>636</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>514</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="1" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="1" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>534</v>
+      </c>
       <c r="F37" s="7"/>
       <c r="G37" s="1" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="1" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="1" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>547</v>
+      </c>
       <c r="F40" s="7"/>
       <c r="G40" s="1" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>551</v>
+      </c>
       <c r="F41" s="7"/>
       <c r="G41" s="1" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
+      <c r="A42" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>553</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="1" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>560</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="1" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>561</v>
+      </c>
       <c r="F45" s="7"/>
       <c r="G45" s="1" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>562</v>
+      </c>
       <c r="F46" s="7"/>
       <c r="G46" s="1" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>584</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="E50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="G50" s="1" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>593</v>
+      </c>
       <c r="G51" s="1" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="E52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="G52" s="1" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>598</v>
+      </c>
       <c r="G53" s="1" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="G54" s="1" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>612</v>
+      </c>
       <c r="G55" s="1" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>623</v>
+      </c>
       <c r="G56" s="1" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="E57" s="1"/>
       <c r="G57" s="1" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="E58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="E59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>395</v>
+      <c r="G60" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="E61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="E62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="E63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="G69" s="1" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E84" s="1"/>
       <c r="G84" s="1" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G93" s="1" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G94" s="1" t="s">
-        <v>429</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G95" s="1" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G96" s="1" t="s">
-        <v>431</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G97" s="1" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G98" s="1" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
     </row>
     <row r="99" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G99" s="1" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G100" s="1" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G101" s="1" t="b">
-        <v>0</v>
+      <c r="G101" s="1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G102" s="1" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="1" t="s">
-        <v>437</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="1" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G105" s="1" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G106" s="1" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G107" s="1" t="s">
-        <v>441</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G108" s="1" t="s">
-        <v>442</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G109" s="1" t="s">
-        <v>443</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="1" t="s">
-        <v>444</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G111" s="1" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G112" s="1" t="s">
-        <v>446</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="1" t="s">
-        <v>447</v>
+        <v>643</v>
       </c>
     </row>
     <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="1" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="1" t="s">
-        <v>449</v>
+        <v>533</v>
       </c>
     </row>
     <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="1" t="s">
-        <v>450</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="1" t="s">
-        <v>451</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="1" t="s">
-        <v>452</v>
+        <v>540</v>
       </c>
     </row>
     <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="1" t="s">
-        <v>453</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="1" t="s">
-        <v>454</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" s="1" t="s">
-        <v>455</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" s="1" t="s">
-        <v>456</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" s="1" t="s">
-        <v>457</v>
+        <v>548</v>
       </c>
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" s="1" t="s">
-        <v>458</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" s="1" t="s">
-        <v>459</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" s="1" t="s">
-        <v>460</v>
+        <v>552</v>
       </c>
     </row>
     <row r="127" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G127" s="1" t="s">
-        <v>461</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G128" s="1" t="s">
-        <v>462</v>
+        <v>558</v>
       </c>
     </row>
     <row r="129" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G129" s="1" t="s">
-        <v>463</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G130" s="1" t="s">
-        <v>464</v>
+        <v>566</v>
       </c>
     </row>
     <row r="131" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G131" s="1" t="s">
-        <v>465</v>
+        <v>569</v>
       </c>
     </row>
     <row r="132" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G132" s="1" t="s">
-        <v>466</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G133" s="1" t="s">
-        <v>467</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G134" s="1" t="s">
-        <v>468</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G135" s="1" t="s">
-        <v>469</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G136" s="1" t="s">
-        <v>470</v>
+        <v>587</v>
       </c>
     </row>
     <row r="137" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G137" s="1" t="s">
-        <v>471</v>
+        <v>588</v>
       </c>
     </row>
     <row r="138" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G138" s="1" t="s">
-        <v>472</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G139" s="1" t="s">
-        <v>473</v>
+        <v>592</v>
       </c>
     </row>
     <row r="140" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G140" s="1" t="s">
-        <v>474</v>
+        <v>594</v>
       </c>
     </row>
     <row r="141" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G141" s="1" t="s">
-        <v>475</v>
+        <v>595</v>
       </c>
     </row>
     <row r="142" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G142" s="1" t="s">
-        <v>476</v>
+        <v>596</v>
       </c>
     </row>
     <row r="143" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G143" s="1" t="s">
-        <v>477</v>
+        <v>599</v>
       </c>
     </row>
     <row r="144" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G144" s="1" t="s">
-        <v>478</v>
+        <v>602</v>
       </c>
     </row>
     <row r="145" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G145" s="1" t="s">
-        <v>479</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G146" s="1" t="s">
-        <v>480</v>
+        <v>605</v>
       </c>
     </row>
     <row r="147" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G147" s="1" t="s">
-        <v>481</v>
+        <v>606</v>
       </c>
     </row>
     <row r="148" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G148" s="1" t="s">
-        <v>482</v>
+        <v>608</v>
       </c>
     </row>
     <row r="149" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G149" s="1" t="s">
-        <v>483</v>
+        <v>609</v>
       </c>
     </row>
     <row r="150" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G150" s="1" t="s">
-        <v>484</v>
+        <v>610</v>
       </c>
     </row>
     <row r="151" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G151" s="1" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
     </row>
     <row r="152" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G152" s="1" t="s">
-        <v>486</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G153" s="1" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G154" s="1" t="s">
-        <v>488</v>
+        <v>617</v>
       </c>
     </row>
     <row r="155" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G155" s="1" t="s">
-        <v>489</v>
+        <v>620</v>
       </c>
     </row>
     <row r="156" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G156" s="1" t="s">
-        <v>490</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G157" s="1" t="s">
-        <v>491</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G158" s="1" t="s">
-        <v>492</v>
+        <v>626</v>
       </c>
     </row>
     <row r="159" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G159" s="1" t="s">
-        <v>493</v>
+        <v>627</v>
       </c>
     </row>
     <row r="160" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G160" s="1" t="s">
-        <v>494</v>
+        <v>629</v>
       </c>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G161" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G162" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G163" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G164" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G165" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="166" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G166" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="167" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G167" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="168" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G168" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="169" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G169" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="170" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G170" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="171" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G171" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="172" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G172" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="173" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G173" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="174" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G174" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G175" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="176" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G176" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="177" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G177" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="178" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G178" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="179" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G179" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="180" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G180" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="181" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G181" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="182" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G182" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="183" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G183" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="184" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G184" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="185" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G185" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="186" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G186" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="187" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G187" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="188" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G188" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="189" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G189" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="190" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G190" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="191" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G191" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="192" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G192" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G193" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G194" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G195" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G196" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G197" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G198" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G199" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G200" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G201" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G202" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G203" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="204" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G204" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="205" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G205" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="206" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G206" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="207" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G207" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="208" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G208" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G209" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G210" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G211" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G212" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G213" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G214" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G215" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G216" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G217" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G218" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G219" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G220" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G221" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G222" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G223" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G224" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G225" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G226" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G227" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G228" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G229" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G230" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G231" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G232" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G233" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G234" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G235" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G236" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G237" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G238" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G239" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G240" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="241" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G241" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="242" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G242" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="243" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G243" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G244" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="245" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G245" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="246" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G246" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="247" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G247" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="248" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G248" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="249" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G249" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="250" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G250" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="251" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G251" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="252" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G252" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="253" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G253" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="254" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G254" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G255" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G256" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G257" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G258" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G259" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G260" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G261" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G262" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G263" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G264" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G265" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G266" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G267" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G268" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G269" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G270" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G271" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G272" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G273" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G274" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G275" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G276" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G277" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G278" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G279" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G280" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G281" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G282" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G283" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G284" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G285" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G286" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G287" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G288" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G289" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G290" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G291" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G292" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G293" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G294" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G295" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G296" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G297" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G298" s="1" t="s">
         <v>630</v>
       </c>
     </row>
